--- a/storage/imports/categories.xlsx
+++ b/storage/imports/categories.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -31,13 +31,43 @@
     <t>Perros</t>
   </si>
   <si>
+    <t>Merchant</t>
+  </si>
+  <si>
     <t>asd</t>
   </si>
   <si>
     <t>Gatos</t>
   </si>
   <si>
-    <t>Finca</t>
+    <t>Otros animales domesticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentos </t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Aseo y belleza animal</t>
+  </si>
+  <si>
+    <t>Servicios veterinarios</t>
+  </si>
+  <si>
+    <t>Juguetes y accesorios</t>
+  </si>
+  <si>
+    <t>Servicios especializados</t>
+  </si>
+  <si>
+    <t>Destacados</t>
+  </si>
+  <si>
+    <t>FAQs</t>
+  </si>
+  <si>
+    <t>Article</t>
   </si>
   <si>
     <t>Documentacion</t>
@@ -59,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -68,6 +98,18 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <color rgb="FF999999"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF999999"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,14 +126,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -307,6 +361,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="25.0"/>
+    <col customWidth="1" min="6" max="6" width="20.57"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -332,14 +390,14 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -348,17 +406,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="str">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:E3" si="1">C2</f>
-        <v>asd</v>
-      </c>
-      <c r="D3" s="2">
+        <v>Merchant</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>asd</v>
       </c>
@@ -368,18 +426,18 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="str">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="str">
         <f t="shared" ref="C4:E4" si="3">C3</f>
-        <v>asd</v>
-      </c>
-      <c r="D4" s="2">
+        <v>Merchant</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="3" t="str">
         <f t="shared" si="3"/>
         <v>asd</v>
       </c>
@@ -390,17 +448,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" ref="C5:E5" si="4">C4</f>
-        <v>asd</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:E5" si="4">D4</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="str">
         <f t="shared" si="4"/>
         <v>asd</v>
       </c>
@@ -411,17 +468,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="str">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="str">
         <f t="shared" ref="C6:E6" si="5">C5</f>
-        <v>asd</v>
-      </c>
-      <c r="D6" s="2">
+        <v>Product</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" si="5"/>
         <v>asd</v>
       </c>
@@ -432,17 +489,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="str">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="str">
         <f t="shared" ref="C7:E7" si="6">C6</f>
-        <v>asd</v>
-      </c>
-      <c r="D7" s="2">
+        <v>Product</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" si="6"/>
         <v>asd</v>
       </c>
@@ -453,17 +510,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="str">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="str">
         <f t="shared" ref="C8:E8" si="7">C7</f>
-        <v>asd</v>
-      </c>
-      <c r="D8" s="2">
+        <v>Product</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" si="7"/>
         <v>asd</v>
       </c>
@@ -473,20 +530,99 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="str">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="str">
         <f t="shared" ref="C9:E9" si="8">C8</f>
-        <v>asd</v>
-      </c>
-      <c r="D9" s="2">
+        <v>Product</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="8"/>
         <v>asd</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" ref="C10:E10" si="9">C9</f>
+        <v>Product</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:E11" si="10">D10</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/storage/imports/categories.xlsx
+++ b/storage/imports/categories.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,9 @@
     <t>level</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -34,13 +37,25 @@
     <t>Merchant</t>
   </si>
   <si>
-    <t>asd</t>
+    <t>Todo para Perros</t>
   </si>
   <si>
     <t>Gatos</t>
   </si>
   <si>
-    <t>Otros animales domesticos</t>
+    <t xml:space="preserve">Todo para Gatos </t>
+  </si>
+  <si>
+    <t>Otras mascotas</t>
+  </si>
+  <si>
+    <t>Aves, peces, hamsters y animales domesticos</t>
+  </si>
+  <si>
+    <t>Ganaderia</t>
+  </si>
+  <si>
+    <t>Vacas, Caballos</t>
   </si>
   <si>
     <t xml:space="preserve">Alimentos </t>
@@ -55,6 +70,9 @@
     <t>Servicios veterinarios</t>
   </si>
   <si>
+    <t>Urgencias, consultas, vacunacion y famacia</t>
+  </si>
+  <si>
     <t>Juguetes y accesorios</t>
   </si>
   <si>
@@ -64,32 +82,38 @@
     <t>Destacados</t>
   </si>
   <si>
-    <t>FAQs</t>
+    <t>Mascotas en adopcion</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Mascotas Perdidas</t>
+  </si>
+  <si>
+    <t>Preguntas Frecuentes</t>
   </si>
   <si>
     <t>Article</t>
   </si>
   <si>
-    <t>Documentacion</t>
-  </si>
-  <si>
-    <t>Vacunas</t>
-  </si>
-  <si>
-    <t>Medicinas</t>
-  </si>
-  <si>
-    <t>Comida</t>
-  </si>
-  <si>
-    <t>Juguetes</t>
+    <t>Banners galeria principal</t>
+  </si>
+  <si>
+    <t>Ultimas Noticias</t>
+  </si>
+  <si>
+    <t>Gatos en adopcion</t>
+  </si>
+  <si>
+    <t>Perros en adopcion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -100,17 +124,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <color rgb="FF999999"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF999999"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -126,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -137,15 +150,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -363,7 +367,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="25.0"/>
-    <col customWidth="1" min="6" max="6" width="20.57"/>
+    <col customWidth="1" min="5" max="6" width="17.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -379,8 +383,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -388,162 +395,145 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A9" si="2">A2+1</f>
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f t="shared" ref="C3:E3" si="1">C2</f>
+        <f t="shared" ref="C3:D3" si="1">C2</f>
         <v>Merchant</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>asd</v>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f t="shared" ref="C4:E4" si="3">C3</f>
+        <f>C3</f>
         <v>Merchant</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>asd</v>
+        <f>D2</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" ref="C5:D5" si="2">C3</f>
+        <v>Merchant</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" ref="D5:E5" si="4">D4</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>asd</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f t="shared" ref="C6:E6" si="5">C5</f>
-        <v>Product</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>asd</v>
+        <f>D5</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f t="shared" ref="C7:E7" si="6">C6</f>
+        <f t="shared" ref="C7:D7" si="3">C6</f>
         <v>Product</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>asd</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f t="shared" ref="C8:E8" si="7">C7</f>
+        <f t="shared" ref="C8:D8" si="4">C7</f>
         <v>Product</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>asd</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f t="shared" ref="C9:E9" si="8">C8</f>
+        <f t="shared" ref="C9:D9" si="5">C8</f>
         <v>Product</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>asd</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -551,19 +541,15 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f t="shared" ref="C10:E10" si="9">C9</f>
+        <f t="shared" ref="C10:D10" si="6">C9</f>
         <v>Product</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>asd</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -571,58 +557,115 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" ref="C11:D11" si="7">C10</f>
+        <v>Product</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ref="D11:E11" si="10">D10</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>asd</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="8">D11</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/storage/imports/categories.xlsx
+++ b/storage/imports/categories.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -28,92 +28,137 @@
     <t>icon</t>
   </si>
   <si>
-    <t>description</t>
+    <t>Urgencias 24h</t>
+  </si>
+  <si>
+    <t>merchant-nearby</t>
+  </si>
+  <si>
+    <t>urgencias_24h.jpg</t>
+  </si>
+  <si>
+    <t>Consultas</t>
+  </si>
+  <si>
+    <t>merchant-list</t>
+  </si>
+  <si>
+    <t>consultas.jpg</t>
+  </si>
+  <si>
+    <t>vacunación</t>
+  </si>
+  <si>
+    <t>merchant-nearby-products</t>
+  </si>
+  <si>
+    <t>vacunacion.jpg</t>
+  </si>
+  <si>
+    <t>Examenes</t>
+  </si>
+  <si>
+    <t>examenes.jpg</t>
   </si>
   <si>
     <t>Perros</t>
   </si>
   <si>
-    <t>Merchant</t>
-  </si>
-  <si>
-    <t>Todo para Perros</t>
+    <t>merchant-coverage-products</t>
+  </si>
+  <si>
+    <t>perros.jpg</t>
   </si>
   <si>
     <t>Gatos</t>
   </si>
   <si>
-    <t xml:space="preserve">Todo para Gatos </t>
-  </si>
-  <si>
-    <t>Otras mascotas</t>
-  </si>
-  <si>
-    <t>Aves, peces, hamsters y animales domesticos</t>
+    <t>gatos.jpg</t>
+  </si>
+  <si>
+    <t>Otros Animales</t>
+  </si>
+  <si>
+    <t>otros_animales.jpg</t>
   </si>
   <si>
     <t>Ganaderia</t>
   </si>
   <si>
-    <t>Vacas, Caballos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alimentos </t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Aseo y belleza animal</t>
-  </si>
-  <si>
-    <t>Servicios veterinarios</t>
-  </si>
-  <si>
-    <t>Urgencias, consultas, vacunacion y famacia</t>
-  </si>
-  <si>
-    <t>Juguetes y accesorios</t>
-  </si>
-  <si>
-    <t>Servicios especializados</t>
+    <t>ganaderia.jpg</t>
+  </si>
+  <si>
+    <t>Baño y peluqueria</t>
+  </si>
+  <si>
+    <t>bano_peluqueria.jpg</t>
+  </si>
+  <si>
+    <t>Higiene en casa</t>
+  </si>
+  <si>
+    <t>higiene_casa.jpg</t>
+  </si>
+  <si>
+    <t>Adopcion</t>
+  </si>
+  <si>
+    <t>report-list</t>
+  </si>
+  <si>
+    <t>adopcion.jpg</t>
+  </si>
+  <si>
+    <t>Mascotas Perdidas</t>
+  </si>
+  <si>
+    <t>report-nearby</t>
+  </si>
+  <si>
+    <t>encontre_perdi_mascota.jpg</t>
+  </si>
+  <si>
+    <t>Guarderias y colegios</t>
+  </si>
+  <si>
+    <t>guarderia_colegio.jpg</t>
+  </si>
+  <si>
+    <t>Paseadores</t>
+  </si>
+  <si>
+    <t>Adietramiento</t>
+  </si>
+  <si>
+    <t>Seguros medicos</t>
+  </si>
+  <si>
+    <t>merchant-list-products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificados y tramites </t>
+  </si>
+  <si>
+    <t>Servicios funebres</t>
   </si>
   <si>
     <t>Destacados</t>
   </si>
   <si>
-    <t>Mascotas en adopcion</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Mascotas Perdidas</t>
-  </si>
-  <si>
-    <t>Preguntas Frecuentes</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>Banners galeria principal</t>
-  </si>
-  <si>
-    <t>Ultimas Noticias</t>
-  </si>
-  <si>
-    <t>Gatos en adopcion</t>
-  </si>
-  <si>
-    <t>Perros en adopcion</t>
+    <t>Preguntas frecuentes</t>
+  </si>
+  <si>
+    <t>Banner Principal</t>
+  </si>
+  <si>
+    <t>Noticias destacadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -123,7 +168,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,14 +183,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -367,7 +408,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="25.0"/>
-    <col customWidth="1" min="5" max="6" width="17.86"/>
+    <col customWidth="1" min="3" max="3" width="25.43"/>
+    <col customWidth="1" min="4" max="4" width="13.14"/>
+    <col customWidth="1" min="5" max="5" width="17.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -383,11 +426,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -395,17 +435,16 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -414,18 +453,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="str">
-        <f t="shared" ref="C3:D3" si="1">C2</f>
-        <v>Merchant</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="2">
+        <f>D2</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -436,17 +473,15 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="str">
-        <f>C3</f>
-        <v>Merchant</v>
-      </c>
-      <c r="D4" s="3">
-        <f>D2</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D5" si="1">D2</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -454,19 +489,17 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f t="shared" ref="C5:D5" si="2">C3</f>
-        <v>Merchant</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -474,14 +507,17 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3">
-        <f>D5</f>
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D13" si="2">D5</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -489,15 +525,17 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="str">
-        <f t="shared" ref="C7:D7" si="3">C6</f>
-        <v>Product</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -505,19 +543,17 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <f t="shared" ref="C8:D8" si="4">C7</f>
-        <v>Product</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -525,15 +561,17 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f t="shared" ref="C9:D9" si="5">C8</f>
-        <v>Product</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -541,15 +579,17 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f t="shared" ref="C10:D10" si="6">C9</f>
-        <v>Product</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -557,15 +597,17 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f t="shared" ref="C11:D11" si="7">C10</f>
-        <v>Product</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -573,14 +615,17 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="8">D11</f>
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -588,14 +633,17 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -603,13 +651,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>1.0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -617,10 +668,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
         <v>1.0</v>
@@ -631,10 +682,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
         <v>1.0</v>
@@ -645,10 +696,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1">
         <v>1.0</v>
@@ -659,13 +710,71 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/storage/imports/categories.xlsx
+++ b/storage/imports/categories.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -34,7 +34,7 @@
     <t>merchant-nearby</t>
   </si>
   <si>
-    <t>urgencias_24h.jpg</t>
+    <t>1.jpg</t>
   </si>
   <si>
     <t>Consultas</t>
@@ -43,7 +43,7 @@
     <t>merchant-list</t>
   </si>
   <si>
-    <t>consultas.jpg</t>
+    <t>2.jpg</t>
   </si>
   <si>
     <t>vacunación</t>
@@ -52,13 +52,13 @@
     <t>merchant-nearby-products</t>
   </si>
   <si>
-    <t>vacunacion.jpg</t>
+    <t>3.jpg</t>
   </si>
   <si>
     <t>Examenes</t>
   </si>
   <si>
-    <t>examenes.jpg</t>
+    <t>4.jpg</t>
   </si>
   <si>
     <t>Perros</t>
@@ -67,37 +67,31 @@
     <t>merchant-coverage-products</t>
   </si>
   <si>
-    <t>perros.jpg</t>
+    <t>5.jpg</t>
   </si>
   <si>
     <t>Gatos</t>
   </si>
   <si>
-    <t>gatos.jpg</t>
+    <t>6.jpg</t>
   </si>
   <si>
     <t>Otros Animales</t>
   </si>
   <si>
-    <t>otros_animales.jpg</t>
+    <t>7.jpg</t>
   </si>
   <si>
     <t>Ganaderia</t>
   </si>
   <si>
-    <t>ganaderia.jpg</t>
+    <t>8.jpg</t>
   </si>
   <si>
     <t>Baño y peluqueria</t>
   </si>
   <si>
-    <t>bano_peluqueria.jpg</t>
-  </si>
-  <si>
-    <t>Higiene en casa</t>
-  </si>
-  <si>
-    <t>higiene_casa.jpg</t>
+    <t>9.jpg</t>
   </si>
   <si>
     <t>Adopcion</t>
@@ -106,7 +100,7 @@
     <t>report-list</t>
   </si>
   <si>
-    <t>adopcion.jpg</t>
+    <t>11.jpg</t>
   </si>
   <si>
     <t>Mascotas Perdidas</t>
@@ -115,19 +109,25 @@
     <t>report-nearby</t>
   </si>
   <si>
-    <t>encontre_perdi_mascota.jpg</t>
+    <t>10.jpg</t>
   </si>
   <si>
     <t>Guarderias y colegios</t>
   </si>
   <si>
-    <t>guarderia_colegio.jpg</t>
+    <t>13.jpg</t>
   </si>
   <si>
     <t>Paseadores</t>
   </si>
   <si>
-    <t>Adietramiento</t>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>Adiestramiento</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
   </si>
   <si>
     <t>Seguros medicos</t>
@@ -136,10 +136,19 @@
     <t>merchant-list-products</t>
   </si>
   <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Certificados y tramites </t>
   </si>
   <si>
+    <t>16.jpg</t>
+  </si>
+  <si>
     <t>Servicios funebres</t>
+  </si>
+  <si>
+    <t>17.jpg</t>
   </si>
   <si>
     <t>Destacados</t>
@@ -158,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -168,6 +177,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,11 +193,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -410,7 +423,7 @@
     <col customWidth="1" min="2" max="2" width="25.0"/>
     <col customWidth="1" min="3" max="3" width="25.43"/>
     <col customWidth="1" min="4" max="4" width="13.14"/>
-    <col customWidth="1" min="5" max="5" width="17.86"/>
+    <col customWidth="1" min="5" max="5" width="27.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,7 +456,7 @@
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -458,7 +471,7 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <f>D2</f>
         <v>1</v>
       </c>
@@ -476,7 +489,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="1">D2</f>
         <v>1</v>
       </c>
@@ -494,7 +507,7 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -512,8 +525,8 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D13" si="2">D5</f>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D10" si="2">D5</f>
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -530,7 +543,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -548,7 +561,7 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -566,7 +579,7 @@
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -584,7 +597,7 @@
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -600,14 +613,13 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -615,17 +627,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -633,14 +644,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.0</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
@@ -654,7 +664,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1">
         <v>1.0</v>
@@ -667,7 +677,7 @@
       <c r="A15" s="1">
         <v>14.0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -675,6 +685,9 @@
       </c>
       <c r="D15" s="1">
         <v>1.0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -682,13 +695,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1">
         <v>1.0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -696,13 +712,16 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="1">
         <v>1.0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -710,13 +729,16 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>1.0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -724,13 +746,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -738,7 +757,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1">
         <v>2.0</v>
@@ -746,10 +765,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <f>A20+1</f>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1">
         <v>2.0</v>
@@ -760,20 +780,9 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1">
         <v>2.0</v>
       </c>
     </row>
